--- a/public/formats/items.xlsx
+++ b/public/formats/items.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\multifacturalonew\public\formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brayan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5034239-7C81-46D9-B4F6-8C52728BE3C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Descripción</t>
   </si>
@@ -66,12 +67,18 @@
   </si>
   <si>
     <t>PEN</t>
+  </si>
+  <si>
+    <t>Coca cola</t>
+  </si>
+  <si>
+    <t>P00X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,11 +389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +478,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>51121703</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/formats/items.xlsx
+++ b/public/formats/items.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brayan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexnella\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5034239-7C81-46D9-B4F6-8C52728BE3C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Descripción</t>
   </si>
@@ -73,12 +72,21 @@
   </si>
   <si>
     <t>P00X</t>
+  </si>
+  <si>
+    <t>Tiene Igv</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,11 +397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,13 +413,14 @@
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,19 +443,22 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -465,20 +477,23 @@
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
         <v>120.5</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
       <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -500,16 +515,19 @@
       <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
         <v>150</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>50</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
